--- a/medicine/Enfance/Mark_Frost/Mark_Frost.xlsx
+++ b/medicine/Enfance/Mark_Frost/Mark_Frost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mark Frost, né le 25 novembre 1953 à New York, est un romancier américain, un scénariste pour le cinéma et la télévision et un producteur. Il a travaillé sur Capitaine Furillo, co-créé la série culte Twin Peaks, puis signé les scénarios des blockbusters Les Quatre Fantastiques 1 et 2.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mark Frost, fils de l'acteur Warren Frost, est le frère de l'écrivain Scott Frost (en) et de l'actrice Lindsay Frost.
 En 1975, il débute à la télévision en signant les scénarios de deux épisodes de L'Homme qui valait trois milliards. Il rejoint quelques années plus tard la série policière Hill Street Blues, sur laquelle il officie en tant que scénariste pendant trois ans.
@@ -553,18 +567,91 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Série La Prophétie du paladin
-La Prophétie du paladin, Pocket Jeunesse, 2015 ((en) The Paladin Prophecy, 2012)  (ISBN 978-2266246644)
+          <t>Série La Prophétie du paladin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Prophétie du paladin, Pocket Jeunesse, 2015 ((en) The Paladin Prophecy, 2012)  (ISBN 978-2266246644)
 L'Alliance, Pocket Jeunesse, 2016 ((en) Alliance, 2013)  (ISBN 978-2266246651)
-Jeu dangereux, Pocket Jeunesse, 2017 ((en) Rogue, 2015)  (ISBN 978-2266246668)
-Romans indépendants
-La Liste des sept ((en) The List of Seven, 1993)
+Jeu dangereux, Pocket Jeunesse, 2017 ((en) Rogue, 2015)  (ISBN 978-2266246668)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mark_Frost</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Frost</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Liste des sept ((en) The List of Seven, 1993)
 Les Six Messies ((en) The 6 Messiahs, 1995)  (ISBN 2-266-08908-0)
 (en) Before I Wake, 1997Sous le nom de Eric Bowman.
 Le Second Objectif ((en) The Second objective, 2008)  (ISBN 2-7540-0789-X)
-L'Histoire secrète de Twin Peaks, Michel Lafon, 2016 ((en) The Secret History of Twin Peaks, 2016)  (ISBN 978-2749928593)
-Essais
-La Plus Grande Partie de tous les temps : La Naissance du golf moderne ((en) The Greatest Game Ever Played, 2002)  (ISBN 2-226-15151-6)Coécrit avec Hugues Leroy.
+L'Histoire secrète de Twin Peaks, Michel Lafon, 2016 ((en) The Secret History of Twin Peaks, 2016)  (ISBN 978-2749928593)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mark_Frost</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Frost</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Plus Grande Partie de tous les temps : La Naissance du golf moderne ((en) The Greatest Game Ever Played, 2002)  (ISBN 2-226-15151-6)Coécrit avec Hugues Leroy.
 (en) The Grand Slam: Bobby Jones, America, And the Story of Golf, 2006
 (en) The Match: The Day the Game of Golf Changed Forever, 2007
 (en) Game Six, 2009Notes et références
